--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_이승현.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_이승현.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,15 +130,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>~48p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~55p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLEX레이아웃 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 나누어 떨어지는 숫자배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~78p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~48p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~55p</t>
+    <t>34/93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트를 다루는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~108p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http통신 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - N진수게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38/93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~138p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리덕스 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 같은 숫자는 싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 체육복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수형 프로그래밍 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49/93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +281,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -222,24 +324,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,8 +358,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +681,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -625,26 +719,51 @@
       <c r="B3" s="2">
         <v>0.40972222222222227</v>
       </c>
+      <c r="C3" s="2">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.88888888888888884</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.81944444444444453</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
+      <c r="B7" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -772,6 +891,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -780,26 +902,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.8984375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" customWidth="1"/>
     <col min="3" max="3" width="6.19921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" customWidth="1"/>
     <col min="5" max="5" width="6.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.19921875" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" customWidth="1"/>
     <col min="7" max="7" width="6.19921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.09765625" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" customWidth="1"/>
     <col min="9" max="9" width="6.19921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.09765625" customWidth="1"/>
+    <col min="11" max="11" width="6.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -827,8 +951,14 @@
       <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>44013</v>
       </c>
@@ -854,10 +984,12 @@
         <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>44014</v>
       </c>
@@ -883,49 +1015,136 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>44015</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>44016</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>44017</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J6" s="8"/>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>44018</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J7" s="8"/>
+      <c r="L7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>44019</v>
       </c>
@@ -933,8 +1152,9 @@
       <c r="D8" s="8"/>
       <c r="F8" s="8"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>44020</v>
       </c>
@@ -942,8 +1162,9 @@
       <c r="D9" s="8"/>
       <c r="F9" s="8"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>44021</v>
       </c>
@@ -951,8 +1172,9 @@
       <c r="D10" s="8"/>
       <c r="F10" s="8"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>44022</v>
       </c>
@@ -960,8 +1182,9 @@
       <c r="D11" s="8"/>
       <c r="F11" s="8"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>44023</v>
       </c>
@@ -969,8 +1192,9 @@
       <c r="D12" s="8"/>
       <c r="F12" s="8"/>
       <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>44024</v>
       </c>
@@ -978,8 +1202,9 @@
       <c r="D13" s="8"/>
       <c r="F13" s="8"/>
       <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>44025</v>
       </c>
@@ -987,8 +1212,9 @@
       <c r="D14" s="8"/>
       <c r="F14" s="8"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>44026</v>
       </c>
@@ -996,8 +1222,9 @@
       <c r="D15" s="8"/>
       <c r="F15" s="8"/>
       <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>44027</v>
       </c>
@@ -1005,8 +1232,9 @@
       <c r="D16" s="8"/>
       <c r="F16" s="8"/>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>44028</v>
       </c>
@@ -1014,8 +1242,9 @@
       <c r="D17" s="8"/>
       <c r="F17" s="8"/>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>44029</v>
       </c>
@@ -1023,8 +1252,9 @@
       <c r="D18" s="8"/>
       <c r="F18" s="8"/>
       <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>44030</v>
       </c>
@@ -1032,8 +1262,9 @@
       <c r="D19" s="8"/>
       <c r="F19" s="8"/>
       <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>44031</v>
       </c>
@@ -1041,8 +1272,9 @@
       <c r="D20" s="8"/>
       <c r="F20" s="8"/>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>44032</v>
       </c>
@@ -1050,8 +1282,9 @@
       <c r="D21" s="8"/>
       <c r="F21" s="8"/>
       <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>44033</v>
       </c>
@@ -1059,8 +1292,9 @@
       <c r="D22" s="8"/>
       <c r="F22" s="8"/>
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>44034</v>
       </c>
@@ -1068,8 +1302,9 @@
       <c r="D23" s="8"/>
       <c r="F23" s="8"/>
       <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>44035</v>
       </c>
@@ -1077,8 +1312,9 @@
       <c r="D24" s="8"/>
       <c r="F24" s="8"/>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>44036</v>
       </c>
@@ -1086,8 +1322,9 @@
       <c r="D25" s="8"/>
       <c r="F25" s="8"/>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>44037</v>
       </c>
@@ -1095,8 +1332,9 @@
       <c r="D26" s="8"/>
       <c r="F26" s="8"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>44038</v>
       </c>
@@ -1104,8 +1342,9 @@
       <c r="D27" s="8"/>
       <c r="F27" s="8"/>
       <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>44039</v>
       </c>
@@ -1113,8 +1352,9 @@
       <c r="D28" s="8"/>
       <c r="F28" s="8"/>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>44040</v>
       </c>
@@ -1122,8 +1362,9 @@
       <c r="D29" s="8"/>
       <c r="F29" s="8"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>44041</v>
       </c>
@@ -1131,8 +1372,9 @@
       <c r="D30" s="8"/>
       <c r="F30" s="8"/>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>44042</v>
       </c>
@@ -1140,8 +1382,9 @@
       <c r="D31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>44043</v>
       </c>
@@ -1149,12 +1392,14 @@
       <c r="D32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
       <c r="I33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,7 +1413,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
